--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE58AE-E719-4BBC-9BB9-E5C73969C79D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF59F92-6DA4-40A1-9F2E-04D576FF084D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Property!$R$1:$R$170</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -29,10 +32,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -44,10 +43,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -66,10 +61,6 @@
   <si>
     <t>目标名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI/GemsIcons/31</t>
@@ -80,35 +71,165 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Nature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GemsIcons/34</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变的buff的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗的能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpChanged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量基本变化值，
+如果是伤害则是-值 加血则是正值 0则不动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变的数量 正值为加N层
+ 负值则代表消N层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土弹I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水弹I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风弹I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土弹II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水弹II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风弹II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>UI/GemsIcons/33</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然天赋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/GemsIcons/34</t>
-  </si>
-  <si>
-    <t>土弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GemsIcons/35</t>
+  </si>
+  <si>
+    <t>UI/GemsIcons/36</t>
+  </si>
+  <si>
+    <t>UI/GemsIcons/37</t>
+  </si>
+  <si>
+    <t>UI/GemsIcons/38</t>
+  </si>
+  <si>
+    <t>升级技能的条件组
+满足条件后，可以触发技能的自动升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeSkillId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标位Buff改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Targets)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff的数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标 相对于技能的选取目标 查阅行动目标相关文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标 相对于施放技能的人 查阅行动目标相关文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetBuffChanged[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeCondition[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后的技能的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -194,19 +315,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -214,6 +329,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,172 +616,1182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:S170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.625" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="J8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <v>5</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="J9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
+        <v>6</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="J10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
+        <v>7</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>8</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="G15" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="7"/>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="7"/>
+    </row>
+    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R50" s="7"/>
+    </row>
+    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="7"/>
+    </row>
+    <row r="53" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="7"/>
+    </row>
+    <row r="55" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R55" s="7"/>
+    </row>
+    <row r="56" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R56" s="7"/>
+    </row>
+    <row r="57" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="7"/>
+    </row>
+    <row r="58" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="7"/>
+    </row>
+    <row r="59" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="7"/>
+    </row>
+    <row r="60" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="7"/>
+    </row>
+    <row r="61" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R61" s="7"/>
+    </row>
+    <row r="62" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="7"/>
+    </row>
+    <row r="63" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R63" s="7"/>
+    </row>
+    <row r="64" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R64" s="7"/>
+    </row>
+    <row r="65" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R65" s="7"/>
+    </row>
+    <row r="66" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="7"/>
+    </row>
+    <row r="67" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R67" s="7"/>
+    </row>
+    <row r="68" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R68" s="7"/>
+    </row>
+    <row r="69" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R69" s="7"/>
+    </row>
+    <row r="70" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R70" s="7"/>
+    </row>
+    <row r="71" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R71" s="7"/>
+    </row>
+    <row r="72" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="7"/>
+    </row>
+    <row r="73" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R73" s="7"/>
+    </row>
+    <row r="74" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R74" s="7"/>
+    </row>
+    <row r="75" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R75" s="7"/>
+    </row>
+    <row r="76" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="7"/>
+    </row>
+    <row r="77" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R77" s="7"/>
+    </row>
+    <row r="78" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R78" s="7"/>
+    </row>
+    <row r="79" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R79" s="7"/>
+    </row>
+    <row r="80" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R80" s="7"/>
+    </row>
+    <row r="81" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="7"/>
+    </row>
+    <row r="82" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R82" s="7"/>
+    </row>
+    <row r="83" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="7"/>
+    </row>
+    <row r="84" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R84" s="7"/>
+    </row>
+    <row r="85" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R85" s="7"/>
+    </row>
+    <row r="86" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R86" s="7"/>
+    </row>
+    <row r="87" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R87" s="7"/>
+    </row>
+    <row r="88" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R88" s="7"/>
+    </row>
+    <row r="89" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="7"/>
+    </row>
+    <row r="90" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R90" s="7"/>
+    </row>
+    <row r="91" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="7"/>
+    </row>
+    <row r="92" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R92" s="7"/>
+    </row>
+    <row r="93" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R93" s="7"/>
+    </row>
+    <row r="94" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="7"/>
+    </row>
+    <row r="95" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R95" s="7"/>
+    </row>
+    <row r="96" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R96" s="7"/>
+    </row>
+    <row r="97" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R97" s="7"/>
+    </row>
+    <row r="98" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R98" s="7"/>
+    </row>
+    <row r="99" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R99" s="7"/>
+    </row>
+    <row r="100" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="7"/>
+    </row>
+    <row r="101" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="7"/>
+    </row>
+    <row r="102" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R102" s="7"/>
+    </row>
+    <row r="103" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R103" s="7"/>
+    </row>
+    <row r="104" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R104" s="7"/>
+    </row>
+    <row r="105" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R105" s="7"/>
+    </row>
+    <row r="106" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R106" s="7"/>
+    </row>
+    <row r="107" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R107" s="7"/>
+    </row>
+    <row r="108" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R108" s="7"/>
+    </row>
+    <row r="109" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R109" s="7"/>
+    </row>
+    <row r="110" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R110" s="7"/>
+    </row>
+    <row r="111" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R111" s="7"/>
+    </row>
+    <row r="112" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R112" s="7"/>
+    </row>
+    <row r="113" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R113" s="7"/>
+    </row>
+    <row r="114" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R114" s="7"/>
+    </row>
+    <row r="115" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R115" s="7"/>
+    </row>
+    <row r="116" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R116" s="7"/>
+    </row>
+    <row r="117" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R117" s="7"/>
+    </row>
+    <row r="118" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R118" s="7"/>
+    </row>
+    <row r="119" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R119" s="7"/>
+    </row>
+    <row r="120" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R120" s="7"/>
+    </row>
+    <row r="121" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R121" s="7"/>
+    </row>
+    <row r="122" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R122" s="7"/>
+    </row>
+    <row r="123" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R123" s="7"/>
+    </row>
+    <row r="124" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R124" s="7"/>
+    </row>
+    <row r="125" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R125" s="7"/>
+    </row>
+    <row r="126" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R126" s="7"/>
+    </row>
+    <row r="127" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R127" s="7"/>
+    </row>
+    <row r="128" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R128" s="7"/>
+    </row>
+    <row r="129" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R129" s="7"/>
+    </row>
+    <row r="130" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R130" s="7"/>
+    </row>
+    <row r="131" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R131" s="7"/>
+    </row>
+    <row r="132" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R132" s="7"/>
+    </row>
+    <row r="133" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R133" s="7"/>
+    </row>
+    <row r="134" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R134" s="7"/>
+    </row>
+    <row r="135" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R135" s="7"/>
+    </row>
+    <row r="136" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R136" s="7"/>
+    </row>
+    <row r="137" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R137" s="7"/>
+    </row>
+    <row r="138" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R138" s="7"/>
+    </row>
+    <row r="139" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R139" s="7"/>
+    </row>
+    <row r="140" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R140" s="7"/>
+    </row>
+    <row r="141" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R141" s="7"/>
+    </row>
+    <row r="142" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R142" s="7"/>
+    </row>
+    <row r="143" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R143" s="7"/>
+    </row>
+    <row r="144" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R144" s="7"/>
+    </row>
+    <row r="145" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R145" s="7"/>
+    </row>
+    <row r="146" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R146" s="7"/>
+    </row>
+    <row r="147" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R147" s="7"/>
+    </row>
+    <row r="148" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R148" s="7"/>
+    </row>
+    <row r="149" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R149" s="7"/>
+    </row>
+    <row r="150" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R150" s="7"/>
+    </row>
+    <row r="151" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R151" s="7"/>
+    </row>
+    <row r="152" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R152" s="7"/>
+    </row>
+    <row r="153" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R153" s="7"/>
+    </row>
+    <row r="154" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R154" s="7"/>
+    </row>
+    <row r="155" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R155" s="7"/>
+    </row>
+    <row r="156" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R156" s="7"/>
+    </row>
+    <row r="157" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R157" s="7"/>
+    </row>
+    <row r="158" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R158" s="7"/>
+    </row>
+    <row r="159" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R159" s="7"/>
+    </row>
+    <row r="160" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R160" s="7"/>
+    </row>
+    <row r="161" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R161" s="7"/>
+    </row>
+    <row r="162" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R162" s="7"/>
+    </row>
+    <row r="163" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R163" s="7"/>
+    </row>
+    <row r="164" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R164" s="7"/>
+    </row>
+    <row r="165" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R165" s="7"/>
+    </row>
+    <row r="166" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R166" s="7"/>
+    </row>
+    <row r="167" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R167" s="7"/>
+    </row>
+    <row r="168" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R168" s="7"/>
+    </row>
+    <row r="169" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R169" s="7"/>
+    </row>
+    <row r="170" spans="18:18" x14ac:dyDescent="0.2">
+      <c r="R170" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tables/Skill.xlsx
+++ b/Tables/Skill.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB41C41-5712-477C-88F4-650DA2B57DD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19128DCA-CD8F-47E9-9C79-AFFABDCCAF6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -222,6 +218,46 @@
     <t>目标位，
 相对于技能的选取目标 查阅行动目标相关文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GemsIcons/20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击I</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击III</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击IIII</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击IIIII</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能大类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,121 +640,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -734,23 +776,26 @@
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -766,23 +811,26 @@
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -798,23 +846,26 @@
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -830,69 +881,75 @@
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -900,41 +957,38 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="3">
         <v>1</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -942,41 +996,38 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>6</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="3">
         <v>1</v>
       </c>
       <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -984,113 +1035,116 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>8</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -1098,95 +1152,317 @@
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>2</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4">
-        <v>2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>8</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
+        <v>7</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>34</v>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>8</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
